--- a/chapters/ch05-ResourceIntensity/datasets/Krausmann.xlsx
+++ b/chapters/ch05-ResourceIntensity/datasets/Krausmann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch05-ResourceIntensity/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA9FA1-F2E0-4849-B180-1E192C1FDDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD70E5-EDAE-D641-A21D-469149D636F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="27640" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="760" windowWidth="27640" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BD4B77-9666-4341-B923-BF4065840150}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:E107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
